--- a/results/gru/corona/confidence/lossy/avg_scores.xlsx
+++ b/results/gru/corona/confidence/lossy/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="389">
   <si>
     <t>negative</t>
   </si>
@@ -43,652 +43,640 @@
     <t>name</t>
   </si>
   <si>
+    <t>alleged</t>
+  </si>
+  <si>
     <t>unemployment</t>
   </si>
   <si>
-    <t>alleged</t>
-  </si>
-  <si>
     <t>accused</t>
   </si>
   <si>
     <t>stealing</t>
   </si>
   <si>
+    <t>confronted</t>
+  </si>
+  <si>
+    <t>arrest</t>
+  </si>
+  <si>
+    <t>sucks</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>charged</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>starvation</t>
+  </si>
+  <si>
+    <t>shoot</t>
+  </si>
+  <si>
+    <t>halt</t>
+  </si>
+  <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>idiot</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>japan</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>miners</t>
+  </si>
+  <si>
+    <t>ill</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>killing</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>madness</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>covered</t>
+  </si>
+  <si>
+    <t>threaten</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>devastating</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>slap</t>
+  </si>
+  <si>
+    <t>stolen</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>vega</t>
+  </si>
+  <si>
+    <t>christchurch</t>
+  </si>
+  <si>
+    <t>confused</t>
+  </si>
+  <si>
     <t>victim</t>
   </si>
   <si>
-    <t>arrest</t>
+    <t>collapsing</t>
+  </si>
+  <si>
+    <t>prohibits</t>
+  </si>
+  <si>
+    <t>smuggling</t>
+  </si>
+  <si>
+    <t>suffers</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>hoax</t>
+  </si>
+  <si>
+    <t>kuwait</t>
+  </si>
+  <si>
+    <t>poverty</t>
+  </si>
+  <si>
+    <t>abuse</t>
+  </si>
+  <si>
+    <t>survivor</t>
+  </si>
+  <si>
+    <t>raped</t>
+  </si>
+  <si>
+    <t>riots</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>schemes</t>
+  </si>
+  <si>
+    <t>protest</t>
+  </si>
+  <si>
+    <t>wasting</t>
+  </si>
+  <si>
+    <t>struggle</t>
+  </si>
+  <si>
+    <t>hong</t>
+  </si>
+  <si>
+    <t>blaming</t>
+  </si>
+  <si>
+    <t>leaked</t>
+  </si>
+  <si>
+    <t>boycott</t>
+  </si>
+  <si>
+    <t>slams</t>
+  </si>
+  <si>
+    <t>paranoid</t>
+  </si>
+  <si>
+    <t>uber</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>cuts</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>ass</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>bitch</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>bastards</t>
+  </si>
+  <si>
+    <t>stopping</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>mis</t>
+  </si>
+  <si>
+    <t>australians</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>claim</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>denies</t>
+  </si>
+  <si>
+    <t>teens</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>tb</t>
+  </si>
+  <si>
+    <t>stripped</t>
+  </si>
+  <si>
+    <t>shot</t>
+  </si>
+  <si>
+    <t>losses</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>trillion</t>
   </si>
   <si>
     <t>blame</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>charged</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>shoot</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>japan</t>
-  </si>
-  <si>
-    <t>denies</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>miners</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>killing</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>bitch</t>
+    <t>korea</t>
+  </si>
+  <si>
+    <t>ashamed</t>
+  </si>
+  <si>
+    <t>vu</t>
+  </si>
+  <si>
+    <t>french</t>
+  </si>
+  <si>
+    <t>german</t>
+  </si>
+  <si>
+    <t>worries</t>
+  </si>
+  <si>
+    <t>slashed</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>damn</t>
+  </si>
+  <si>
+    <t>uncertain</t>
+  </si>
+  <si>
+    <t>louis</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>trader</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>dec</t>
+  </si>
+  <si>
+    <t>steal</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>severe</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>traders</t>
+  </si>
+  <si>
+    <t>imp</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>era</t>
+  </si>
+  <si>
+    <t>ban</t>
+  </si>
+  <si>
+    <t>dealing</t>
+  </si>
+  <si>
+    <t>strained</t>
+  </si>
+  <si>
+    <t>victims</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>ft</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>terror</t>
+  </si>
+  <si>
+    <t>losing</t>
   </si>
   <si>
     <t>fighting</t>
   </si>
   <si>
-    <t>madness</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>starvation</t>
-  </si>
-  <si>
-    <t>covered</t>
-  </si>
-  <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>threaten</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>idiot</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>devastating</t>
-  </si>
-  <si>
-    <t>stolen</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>slap</t>
-  </si>
-  <si>
-    <t>blaming</t>
-  </si>
-  <si>
-    <t>vega</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>prohibits</t>
-  </si>
-  <si>
-    <t>hoax</t>
-  </si>
-  <si>
-    <t>collapsing</t>
-  </si>
-  <si>
-    <t>ban</t>
-  </si>
-  <si>
-    <t>suffers</t>
-  </si>
-  <si>
-    <t>furious</t>
-  </si>
-  <si>
-    <t>smuggling</t>
-  </si>
-  <si>
-    <t>crushed</t>
-  </si>
-  <si>
-    <t>insanity</t>
-  </si>
-  <si>
-    <t>kuwait</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>falls</t>
-  </si>
-  <si>
-    <t>riots</t>
-  </si>
-  <si>
-    <t>lose</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>halt</t>
-  </si>
-  <si>
-    <t>names</t>
-  </si>
-  <si>
-    <t>schemes</t>
-  </si>
-  <si>
-    <t>abuse</t>
-  </si>
-  <si>
-    <t>brick</t>
-  </si>
-  <si>
-    <t>tired</t>
-  </si>
-  <si>
-    <t>shitty</t>
-  </si>
-  <si>
-    <t>protest</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>confronted</t>
-  </si>
-  <si>
-    <t>hong</t>
-  </si>
-  <si>
-    <t>wasting</t>
-  </si>
-  <si>
-    <t>leaked</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
-    <t>cho</t>
-  </si>
-  <si>
-    <t>boycott</t>
-  </si>
-  <si>
-    <t>loans</t>
-  </si>
-  <si>
-    <t>doubts</t>
-  </si>
-  <si>
-    <t>quantities</t>
-  </si>
-  <si>
-    <t>fbi</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>slams</t>
-  </si>
-  <si>
-    <t>paranoid</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>cuts</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>dump</t>
+  </si>
+  <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>suffering</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>lead</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>greedy</t>
+  </si>
+  <si>
+    <t>fraudulent</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>rob</t>
+  </si>
+  <si>
+    <t>pakistan</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>vegetables</t>
+  </si>
+  <si>
+    <t>kills</t>
   </si>
   <si>
     <t>fake</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>bastards</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>debt</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>losses</t>
-  </si>
-  <si>
-    <t>van</t>
-  </si>
-  <si>
-    <t>claim</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>stripped</t>
-  </si>
-  <si>
-    <t>depression</t>
-  </si>
-  <si>
-    <t>slash</t>
-  </si>
-  <si>
-    <t>looting</t>
-  </si>
-  <si>
-    <t>pune</t>
-  </si>
-  <si>
-    <t>ill</t>
-  </si>
-  <si>
-    <t>pakistan</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>rot</t>
-  </si>
-  <si>
-    <t>impose</t>
-  </si>
-  <si>
-    <t>noticed</t>
-  </si>
-  <si>
-    <t>korea</t>
-  </si>
-  <si>
-    <t>struggles</t>
-  </si>
-  <si>
-    <t>berlin</t>
-  </si>
-  <si>
-    <t>ashamed</t>
-  </si>
-  <si>
-    <t>slashed</t>
-  </si>
-  <si>
-    <t>barrel</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>ass</t>
-  </si>
-  <si>
     <t>germany</t>
   </si>
   <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>selfish</t>
+    <t>27</t>
+  </si>
+  <si>
+    <t>round</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>scared</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>cr</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>limited</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>regarding</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>shortages</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>lost</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>president</t>
+  </si>
+  <si>
+    <t>avoid</t>
   </si>
   <si>
     <t>problem</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>dec</t>
-  </si>
-  <si>
-    <t>steal</t>
-  </si>
-  <si>
-    <t>irony</t>
-  </si>
-  <si>
-    <t>scared</t>
-  </si>
-  <si>
-    <t>limited</t>
-  </si>
-  <si>
-    <t>crore</t>
-  </si>
-  <si>
-    <t>traders</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>allegedly</t>
-  </si>
-  <si>
-    <t>speaks</t>
-  </si>
-  <si>
-    <t>struggle</t>
-  </si>
-  <si>
-    <t>sai</t>
-  </si>
-  <si>
-    <t>desperate</t>
-  </si>
-  <si>
-    <t>suspended</t>
+    <t>police</t>
+  </si>
+  <si>
+    <t>jobs</t>
+  </si>
+  <si>
+    <t>visit</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>im</t>
+  </si>
+  <si>
+    <t>minister</t>
+  </si>
+  <si>
+    <t>york</t>
   </si>
   <si>
     <t>critical</t>
   </si>
   <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>police</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>losing</t>
-  </si>
-  <si>
-    <t>terror</t>
-  </si>
-  <si>
-    <t>rs</t>
-  </si>
-  <si>
-    <t>dump</t>
-  </si>
-  <si>
-    <t>suffering</t>
-  </si>
-  <si>
-    <t>carts</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>hindus</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>dead</t>
-  </si>
-  <si>
-    <t>mis</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>wants</t>
-  </si>
-  <si>
-    <t>mad</t>
-  </si>
-  <si>
-    <t>matter</t>
-  </si>
-  <si>
-    <t>fraudulent</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>vegetables</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>takes</t>
-  </si>
-  <si>
-    <t>round</t>
-  </si>
-  <si>
-    <t>indian</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>uncertain</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>writes</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>cr</t>
-  </si>
-  <si>
-    <t>black</t>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>roll</t>
   </si>
   <si>
     <t>govt</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>shortages</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>stocks</t>
-  </si>
-  <si>
-    <t>hiking</t>
-  </si>
-  <si>
-    <t>egg</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>beginning</t>
-  </si>
-  <si>
-    <t>eat</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>minister</t>
-  </si>
-  <si>
-    <t>visit</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>residents</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>roll</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>community</t>
+    <t>shortage</t>
   </si>
   <si>
     <t>information</t>
@@ -700,496 +688,499 @@
     <t>bad</t>
   </si>
   <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>goods</t>
   </si>
   <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>per</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
+    <t>taking</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
     <t>employees</t>
   </si>
   <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>full</t>
+  </si>
+  <si>
+    <t>masks</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>going</t>
+  </si>
+  <si>
+    <t>supermarket</t>
   </si>
   <si>
     <t>buying</t>
   </si>
   <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>going</t>
+    <t>go</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>dedicated</t>
+  </si>
+  <si>
+    <t>definitely</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>excited</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>wise</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>surface</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>surely</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>accept</t>
+  </si>
+  <si>
+    <t>lucky</t>
+  </si>
+  <si>
+    <t>bouquet</t>
+  </si>
+  <si>
+    <t>celebrate</t>
+  </si>
+  <si>
+    <t>useful</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>delighted</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>celebrating</t>
+  </si>
+  <si>
+    <t>grand</t>
+  </si>
+  <si>
+    <t>appreciate</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>proudly</t>
+  </si>
+  <si>
+    <t>truly</t>
+  </si>
+  <si>
+    <t>worthy</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>grateful</t>
+  </si>
+  <si>
+    <t>interested</t>
+  </si>
+  <si>
+    <t>laugh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>proud</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>clever</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>creating</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>shared</t>
+  </si>
+  <si>
+    <t>bright</t>
+  </si>
+  <si>
+    <t>hoping</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>assure</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>yeah</t>
+  </si>
+  <si>
+    <t>vital</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>chance</t>
+  </si>
+  <si>
+    <t>appreciation</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>united</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>doctors</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>comfort</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>nurses</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>brad</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>tested</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>trip</t>
+  </si>
+  <si>
+    <t>calm</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>easter</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>health</t>
   </si>
   <si>
     <t>workers</t>
   </si>
   <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>oil</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>dedicated</t>
-  </si>
-  <si>
-    <t>definitely</t>
-  </si>
-  <si>
-    <t>useful</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>laugh</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>surface</t>
-  </si>
-  <si>
-    <t>lucky</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>surely</t>
-  </si>
-  <si>
-    <t>accept</t>
-  </si>
-  <si>
-    <t>trusted</t>
-  </si>
-  <si>
-    <t>helps</t>
-  </si>
-  <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>delighted</t>
-  </si>
-  <si>
-    <t>celebrate</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>values</t>
-  </si>
-  <si>
-    <t>appreciate</t>
-  </si>
-  <si>
-    <t>cf</t>
-  </si>
-  <si>
-    <t>truly</t>
-  </si>
-  <si>
-    <t>worthy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>yeah</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>supported</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>agreed</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>grateful</t>
-  </si>
-  <si>
-    <t>excited</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>interested</t>
-  </si>
-  <si>
-    <t>wise</t>
-  </si>
-  <si>
-    <t>charity</t>
-  </si>
-  <si>
-    <t>greater</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>respect</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>honest</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>hero</t>
-  </si>
-  <si>
-    <t>clearly</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>popular</t>
-  </si>
-  <si>
-    <t>highlight</t>
-  </si>
-  <si>
-    <t>bright</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>rescue</t>
-  </si>
-  <si>
-    <t>hoping</t>
-  </si>
-  <si>
-    <t>protected</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>vital</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>appreciation</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>trust</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>united</t>
-  </si>
-  <si>
-    <t>created</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>doctors</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>comfort</t>
-  </si>
-  <si>
-    <t>ha</t>
-  </si>
-  <si>
-    <t>nurses</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>tell</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>trip</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>say</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>stock</t>
+    <t>store</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -1547,7 +1538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q244"/>
+  <dimension ref="A1:Q240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1558,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1619,10 +1610,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1637,16 +1628,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1669,10 +1660,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1687,16 +1678,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1708,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1737,16 +1728,16 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K5">
-        <v>0.7916666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L5">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="M5">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1758,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1787,16 +1778,16 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K6">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1808,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1837,16 +1828,16 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K7">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="L7">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1858,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1887,16 +1878,16 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K8">
         <v>0.75</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1908,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1919,10 +1910,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1937,16 +1928,16 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K9">
-        <v>0.75</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1958,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1987,16 +1978,16 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K10">
-        <v>0.75</v>
+        <v>0.71875</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2008,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2037,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K11">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2058,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2087,16 +2078,16 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K12">
-        <v>0.7254901960784313</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2108,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2137,16 +2128,16 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K13">
-        <v>0.7142857142857143</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2158,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2187,16 +2178,16 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K14">
-        <v>0.7142857142857143</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2208,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2237,16 +2228,16 @@
         <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K15">
         <v>0.6666666666666666</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2258,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2287,16 +2278,16 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K16">
-        <v>0.6666666666666666</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="M16">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2308,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2316,13 +2307,13 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.7272727272727273</v>
+        <v>0.75</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2334,19 +2325,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K17">
-        <v>0.6575342465753424</v>
+        <v>0.625</v>
       </c>
       <c r="L17">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="M17">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2358,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2366,13 +2357,13 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2387,16 +2378,16 @@
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K18">
-        <v>0.65</v>
+        <v>0.625</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2408,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2416,13 +2407,13 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.6666666666666666</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2434,19 +2425,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K19">
-        <v>0.6428571428571429</v>
+        <v>0.6</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2458,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2487,16 +2478,16 @@
         <v>2</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K20">
-        <v>0.625</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2519,10 +2510,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2534,19 +2525,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K21">
-        <v>0.603448275862069</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2558,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2569,10 +2560,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2584,19 +2575,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K22">
-        <v>0.6</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2608,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2637,16 +2628,16 @@
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K23">
-        <v>0.5714285714285714</v>
+        <v>0.5344827586206896</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2658,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2666,13 +2657,13 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.6470588235294118</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2684,19 +2675,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K24">
-        <v>0.5714285714285714</v>
+        <v>0.52</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M24">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2708,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2716,13 +2707,13 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2734,19 +2725,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K25">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2758,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2766,13 +2757,13 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2784,19 +2775,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K26">
-        <v>0.5625</v>
+        <v>0.5</v>
       </c>
       <c r="L26">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M26">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2808,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2816,13 +2807,13 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2834,19 +2825,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K27">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2858,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2866,13 +2857,13 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2884,19 +2875,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K28">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="L28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2908,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2916,13 +2907,13 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2934,19 +2925,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K29">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="L29">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="M29">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2958,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2966,13 +2957,13 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2984,19 +2975,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K30">
         <v>0.5</v>
       </c>
       <c r="L30">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -3008,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -3016,13 +3007,13 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.5454545454545454</v>
+        <v>0.6</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3034,19 +3025,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K31">
         <v>0.5</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -3058,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -3066,7 +3057,7 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.5263157894736842</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C32">
         <v>10</v>
@@ -3084,10 +3075,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K32">
         <v>0.5</v>
@@ -3116,13 +3107,13 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.512987012987013</v>
+        <v>0.5</v>
       </c>
       <c r="C33">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3134,19 +3125,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K33">
         <v>0.5</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -3158,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -3169,10 +3160,10 @@
         <v>0.5</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3184,10 +3175,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K34">
         <v>0.5</v>
@@ -3219,10 +3210,10 @@
         <v>0.5</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3234,19 +3225,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K35">
         <v>0.5</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -3258,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -3287,16 +3278,16 @@
         <v>1</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K36">
         <v>0.5</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -3308,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -3319,10 +3310,10 @@
         <v>0.5</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3334,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K37">
         <v>0.5</v>
@@ -3369,10 +3360,10 @@
         <v>0.5</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3384,19 +3375,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K38">
         <v>0.5</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -3408,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -3419,10 +3410,10 @@
         <v>0.5</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3434,19 +3425,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K39">
         <v>0.5</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3458,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -3469,10 +3460,10 @@
         <v>0.5</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3484,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K40">
         <v>0.5</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3508,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -3519,10 +3510,10 @@
         <v>0.5</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3534,10 +3525,10 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K41">
         <v>0.5</v>
@@ -3569,10 +3560,10 @@
         <v>0.5</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3584,10 +3575,10 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K42">
         <v>0.5</v>
@@ -3619,10 +3610,10 @@
         <v>0.5</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3634,10 +3625,10 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K43">
         <v>0.5</v>
@@ -3669,10 +3660,10 @@
         <v>0.5</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3684,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K44">
         <v>0.5</v>
@@ -3737,7 +3728,7 @@
         <v>1</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K45">
         <v>0.5</v>
@@ -3769,10 +3760,10 @@
         <v>0.5</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3784,10 +3775,10 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K46">
         <v>0.5</v>
@@ -3819,10 +3810,10 @@
         <v>0.5</v>
       </c>
       <c r="C47">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3834,10 +3825,10 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K47">
         <v>0.5</v>
@@ -3887,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K48">
         <v>0.5</v>
@@ -3937,16 +3928,16 @@
         <v>1</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K49">
-        <v>0.4929577464788732</v>
+        <v>0.5</v>
       </c>
       <c r="L49">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="M49">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3958,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>108</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3969,10 +3960,10 @@
         <v>0.5</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3984,19 +3975,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K50">
-        <v>0.4705882352941176</v>
+        <v>0.5</v>
       </c>
       <c r="L50">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="M50">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -4008,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -4037,16 +4028,16 @@
         <v>2</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K51">
-        <v>0.4117647058823529</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L51">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="M51">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -4058,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -4087,16 +4078,16 @@
         <v>1</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="K52">
-        <v>0.4074074074074074</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L52">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M52">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -4108,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -4137,16 +4128,16 @@
         <v>1</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K53">
-        <v>0.4</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L53">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M53">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -4158,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -4187,16 +4178,16 @@
         <v>1</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>301</v>
+        <v>246</v>
       </c>
       <c r="K54">
-        <v>0.3846153846153846</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L54">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M54">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -4208,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -4237,16 +4228,16 @@
         <v>1</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K55">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="L55">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M55">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -4258,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -4287,16 +4278,16 @@
         <v>1</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K56">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="L56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -4308,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -4337,16 +4328,16 @@
         <v>1</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K57">
-        <v>0.3333333333333333</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -4358,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -4369,10 +4360,10 @@
         <v>0.5</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -4384,19 +4375,19 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K58">
-        <v>0.3333333333333333</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="L58">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -4408,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -4419,10 +4410,10 @@
         <v>0.5</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -4434,19 +4425,19 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K59">
         <v>0.3333333333333333</v>
       </c>
       <c r="L59">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M59">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -4458,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -4487,16 +4478,16 @@
         <v>1</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K60">
         <v>0.3333333333333333</v>
       </c>
       <c r="L60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -4508,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -4519,10 +4510,10 @@
         <v>0.5</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4534,10 +4525,10 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K61">
         <v>0.3333333333333333</v>
@@ -4587,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K62">
         <v>0.3333333333333333</v>
@@ -4637,7 +4628,7 @@
         <v>2</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K63">
         <v>0.3333333333333333</v>
@@ -4687,7 +4678,7 @@
         <v>1</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K64">
         <v>0.3333333333333333</v>
@@ -4737,16 +4728,16 @@
         <v>1</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K65">
-        <v>0.3333333333333333</v>
+        <v>0.3286384976525822</v>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4758,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>2</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -4787,16 +4778,16 @@
         <v>1</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K66">
-        <v>0.3333333333333333</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4808,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -4837,16 +4828,16 @@
         <v>1</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K67">
-        <v>0.3333333333333333</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4858,7 +4849,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -4887,16 +4878,16 @@
         <v>1</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K68">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L68">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M68">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4908,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -4937,16 +4928,16 @@
         <v>1</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K69">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4958,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -4987,16 +4978,16 @@
         <v>1</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K70">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -5008,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -5016,13 +5007,13 @@
         <v>77</v>
       </c>
       <c r="B71">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -5034,19 +5025,19 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K71">
-        <v>0.3178294573643411</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L71">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="M71">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -5058,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>88</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -5066,13 +5057,13 @@
         <v>78</v>
       </c>
       <c r="B72">
-        <v>0.5</v>
+        <v>0.448051948051948</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -5084,19 +5075,19 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K72">
-        <v>0.3076923076923077</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -5108,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -5116,13 +5107,13 @@
         <v>79</v>
       </c>
       <c r="B73">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -5134,19 +5125,19 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="K73">
-        <v>0.3076923076923077</v>
+        <v>0.2713178294573643</v>
       </c>
       <c r="L73">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="M73">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -5158,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -5166,13 +5157,13 @@
         <v>80</v>
       </c>
       <c r="B74">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -5184,19 +5175,19 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K74">
-        <v>0.3076923076923077</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M74">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -5208,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -5216,13 +5207,13 @@
         <v>81</v>
       </c>
       <c r="B75">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -5234,19 +5225,19 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K75">
-        <v>0.303030303030303</v>
+        <v>0.25</v>
       </c>
       <c r="L75">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="M75">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -5258,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>23</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -5266,13 +5257,13 @@
         <v>82</v>
       </c>
       <c r="B76">
-        <v>0.5</v>
+        <v>0.4334763948497854</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -5284,19 +5275,19 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="K76">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="L76">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M76">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -5308,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -5316,13 +5307,13 @@
         <v>83</v>
       </c>
       <c r="B77">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -5334,19 +5325,19 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K77">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="L77">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="M77">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -5358,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -5366,13 +5357,13 @@
         <v>84</v>
       </c>
       <c r="B78">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -5384,19 +5375,19 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K78">
-        <v>0.2826086956521739</v>
+        <v>0.25</v>
       </c>
       <c r="L78">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="M78">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -5408,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -5416,13 +5407,13 @@
         <v>85</v>
       </c>
       <c r="B79">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -5434,19 +5425,19 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K79">
-        <v>0.2708333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="L79">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="M79">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -5458,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>105</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -5466,13 +5457,13 @@
         <v>86</v>
       </c>
       <c r="B80">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -5484,19 +5475,19 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K80">
         <v>0.25</v>
       </c>
       <c r="L80">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M80">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -5508,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -5516,13 +5507,13 @@
         <v>87</v>
       </c>
       <c r="B81">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -5534,19 +5525,19 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K81">
         <v>0.25</v>
       </c>
       <c r="L81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -5558,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -5566,13 +5557,13 @@
         <v>88</v>
       </c>
       <c r="B82">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -5584,19 +5575,19 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K82">
         <v>0.25</v>
       </c>
       <c r="L82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -5608,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -5616,13 +5607,13 @@
         <v>89</v>
       </c>
       <c r="B83">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -5634,10 +5625,10 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K83">
         <v>0.25</v>
@@ -5666,13 +5657,13 @@
         <v>90</v>
       </c>
       <c r="B84">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -5684,10 +5675,10 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K84">
         <v>0.25</v>
@@ -5716,13 +5707,13 @@
         <v>91</v>
       </c>
       <c r="B85">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -5734,10 +5725,10 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K85">
         <v>0.25</v>
@@ -5766,13 +5757,13 @@
         <v>92</v>
       </c>
       <c r="B86">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="C86">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D86">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -5784,10 +5775,10 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K86">
         <v>0.25</v>
@@ -5816,13 +5807,13 @@
         <v>93</v>
       </c>
       <c r="B87">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -5834,10 +5825,10 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K87">
         <v>0.25</v>
@@ -5866,13 +5857,13 @@
         <v>94</v>
       </c>
       <c r="B88">
-        <v>0.4291845493562232</v>
+        <v>0.4</v>
       </c>
       <c r="C88">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D88">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -5884,10 +5875,10 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>133</v>
+        <v>3</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K88">
         <v>0.25</v>
@@ -5916,13 +5907,13 @@
         <v>95</v>
       </c>
       <c r="B89">
-        <v>0.4285714285714285</v>
+        <v>0.4</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -5934,10 +5925,10 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="K89">
         <v>0.25</v>
@@ -5966,13 +5957,13 @@
         <v>96</v>
       </c>
       <c r="B90">
-        <v>0.4166666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="C90">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D90">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -5984,19 +5975,19 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K90">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="L90">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M90">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -6008,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -6019,10 +6010,10 @@
         <v>0.4</v>
       </c>
       <c r="C91">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D91">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -6034,19 +6025,19 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K91">
-        <v>0.25</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -6058,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -6066,13 +6057,13 @@
         <v>98</v>
       </c>
       <c r="B92">
-        <v>0.4</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D92">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -6084,19 +6075,19 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K92">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -6108,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -6116,13 +6107,13 @@
         <v>99</v>
       </c>
       <c r="B93">
-        <v>0.4</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -6134,19 +6125,19 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K93">
-        <v>0.25</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="L93">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M93">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -6158,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -6166,13 +6157,13 @@
         <v>100</v>
       </c>
       <c r="B94">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -6184,19 +6175,19 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="K94">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="L94">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M94">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -6208,7 +6199,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:17">
@@ -6216,13 +6207,13 @@
         <v>101</v>
       </c>
       <c r="B95">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -6234,19 +6225,19 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K95">
-        <v>0.2307692307692308</v>
+        <v>0.2</v>
       </c>
       <c r="L95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -6258,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -6266,13 +6257,13 @@
         <v>102</v>
       </c>
       <c r="B96">
-        <v>0.3809523809523809</v>
+        <v>0.375</v>
       </c>
       <c r="C96">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D96">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -6284,19 +6275,19 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="K96">
-        <v>0.2222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="L96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -6308,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:17">
@@ -6316,13 +6307,13 @@
         <v>103</v>
       </c>
       <c r="B97">
-        <v>0.375</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -6334,19 +6325,19 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K97">
-        <v>0.2142857142857143</v>
+        <v>0.2</v>
       </c>
       <c r="L97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -6358,7 +6349,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:17">
@@ -6366,13 +6357,13 @@
         <v>104</v>
       </c>
       <c r="B98">
-        <v>0.375</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -6384,19 +6375,19 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="K98">
-        <v>0.2083333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="L98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -6408,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:17">
@@ -6416,13 +6407,13 @@
         <v>105</v>
       </c>
       <c r="B99">
-        <v>0.375</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -6434,19 +6425,19 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K99">
         <v>0.2</v>
       </c>
       <c r="L99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -6458,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:17">
@@ -6466,13 +6457,13 @@
         <v>106</v>
       </c>
       <c r="B100">
-        <v>0.3636363636363636</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C100">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -6484,19 +6475,19 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="K100">
         <v>0.2</v>
       </c>
       <c r="L100">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M100">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -6508,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:17">
@@ -6519,10 +6510,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -6534,19 +6525,19 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K101">
-        <v>0.2</v>
+        <v>0.1875</v>
       </c>
       <c r="L101">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M101">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -6558,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" spans="1:17">
@@ -6587,16 +6578,16 @@
         <v>2</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="K102">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L102">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M102">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -6608,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:17">
@@ -6637,16 +6628,16 @@
         <v>2</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K103">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -6658,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:17">
@@ -6669,10 +6660,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -6684,19 +6675,19 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K104">
-        <v>0.2</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -6708,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:17">
@@ -6737,10 +6728,10 @@
         <v>2</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="K105">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L105">
         <v>1</v>
@@ -6758,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:17">
@@ -6787,16 +6778,16 @@
         <v>2</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K106">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -6808,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:17">
@@ -6819,10 +6810,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="C107">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -6834,13 +6825,13 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="K107">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L107">
         <v>1</v>
@@ -6858,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:17">
@@ -6887,16 +6878,16 @@
         <v>2</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K108">
-        <v>0.1818181818181818</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="L108">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M108">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -6908,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109" spans="1:17">
@@ -6919,10 +6910,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -6934,19 +6925,19 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K109">
-        <v>0.1666666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="L109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -6958,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:17">
@@ -6987,10 +6978,10 @@
         <v>2</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K110">
-        <v>0.1666666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="L110">
         <v>1</v>
@@ -7008,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -7019,10 +7010,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -7034,19 +7025,19 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K111">
-        <v>0.1621621621621622</v>
+        <v>0.125</v>
       </c>
       <c r="L111">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M111">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -7058,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -7069,10 +7060,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="C112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -7084,13 +7075,13 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K112">
-        <v>0.1428571428571428</v>
+        <v>0.125</v>
       </c>
       <c r="L112">
         <v>1</v>
@@ -7108,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:17">
@@ -7137,10 +7128,10 @@
         <v>2</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K113">
-        <v>0.1428571428571428</v>
+        <v>0.125</v>
       </c>
       <c r="L113">
         <v>1</v>
@@ -7158,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:17">
@@ -7187,16 +7178,16 @@
         <v>2</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K114">
-        <v>0.1379310344827586</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M114">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -7208,7 +7199,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:17">
@@ -7237,16 +7228,16 @@
         <v>2</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K115">
-        <v>0.131578947368421</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L115">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M115">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -7258,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:17">
@@ -7287,10 +7278,10 @@
         <v>2</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K116">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="L116">
         <v>1</v>
@@ -7308,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:17">
@@ -7337,10 +7328,10 @@
         <v>2</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K117">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="L117">
         <v>1</v>
@@ -7358,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:17">
@@ -7387,10 +7378,10 @@
         <v>2</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K118">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="L118">
         <v>1</v>
@@ -7408,7 +7399,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:17">
@@ -7416,13 +7407,13 @@
         <v>125</v>
       </c>
       <c r="B119">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -7434,19 +7425,19 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K119">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M119">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -7458,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:17">
@@ -7466,13 +7457,13 @@
         <v>126</v>
       </c>
       <c r="B120">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -7484,19 +7475,19 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="K120">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="L120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -7508,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:17">
@@ -7516,13 +7507,13 @@
         <v>127</v>
       </c>
       <c r="B121">
-        <v>0.3333333333333333</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -7534,13 +7525,13 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="K121">
-        <v>0.125</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L121">
         <v>1</v>
@@ -7558,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:17">
@@ -7566,13 +7557,13 @@
         <v>128</v>
       </c>
       <c r="B122">
-        <v>0.3157894736842105</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C122">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D122">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -7584,13 +7575,13 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="K122">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L122">
         <v>1</v>
@@ -7608,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:17">
@@ -7616,13 +7607,13 @@
         <v>129</v>
       </c>
       <c r="B123">
-        <v>0.3</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -7634,13 +7625,13 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K123">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L123">
         <v>1</v>
@@ -7658,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:17">
@@ -7666,13 +7657,13 @@
         <v>130</v>
       </c>
       <c r="B124">
-        <v>0.3</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -7684,19 +7675,19 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K124">
-        <v>0.1</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -7708,7 +7699,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -7716,13 +7707,13 @@
         <v>131</v>
       </c>
       <c r="B125">
-        <v>0.3</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -7734,19 +7725,19 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="K125">
-        <v>0.1</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -7758,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -7766,13 +7757,13 @@
         <v>132</v>
       </c>
       <c r="B126">
-        <v>0.3</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C126">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D126">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -7784,13 +7775,13 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="K126">
-        <v>0.1</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L126">
         <v>1</v>
@@ -7808,7 +7799,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:17">
@@ -7816,13 +7807,13 @@
         <v>133</v>
       </c>
       <c r="B127">
-        <v>0.2941176470588235</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C127">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D127">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -7834,19 +7825,19 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K127">
-        <v>0.1</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -7858,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -7866,13 +7857,13 @@
         <v>134</v>
       </c>
       <c r="B128">
-        <v>0.2857142857142857</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -7884,19 +7875,19 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="K128">
-        <v>0.09090909090909091</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="L128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -7908,7 +7899,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" spans="1:17">
@@ -7916,13 +7907,13 @@
         <v>135</v>
       </c>
       <c r="B129">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -7934,13 +7925,13 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K129">
-        <v>0.09090909090909091</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L129">
         <v>1</v>
@@ -7958,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:17">
@@ -7966,13 +7957,13 @@
         <v>136</v>
       </c>
       <c r="B130">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -7984,13 +7975,13 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="K130">
-        <v>0.09090909090909091</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L130">
         <v>1</v>
@@ -8008,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:17">
@@ -8016,13 +8007,13 @@
         <v>137</v>
       </c>
       <c r="B131">
-        <v>0.2777777777777778</v>
+        <v>0.25</v>
       </c>
       <c r="C131">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -8034,13 +8025,13 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K131">
-        <v>0.09090909090909091</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="L131">
         <v>1</v>
@@ -8058,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="1:17">
@@ -8066,13 +8057,13 @@
         <v>138</v>
       </c>
       <c r="B132">
-        <v>0.2727272727272727</v>
+        <v>0.25</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -8084,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K132">
-        <v>0.08333333333333333</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L132">
         <v>1</v>
@@ -8108,7 +8099,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:17">
@@ -8116,13 +8107,13 @@
         <v>139</v>
       </c>
       <c r="B133">
-        <v>0.2592592592592592</v>
+        <v>0.25</v>
       </c>
       <c r="C133">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -8134,19 +8125,19 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K133">
-        <v>0.08333333333333333</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="L133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -8158,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="134" spans="1:17">
@@ -8187,10 +8178,10 @@
         <v>3</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="K134">
-        <v>0.05882352941176471</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="L134">
         <v>1</v>
@@ -8208,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:17">
@@ -8237,10 +8228,10 @@
         <v>3</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K135">
-        <v>0.05882352941176471</v>
+        <v>0.05</v>
       </c>
       <c r="L135">
         <v>1</v>
@@ -8258,7 +8249,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:17">
@@ -8269,10 +8260,10 @@
         <v>0.25</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -8284,13 +8275,13 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="K136">
-        <v>0.04</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L136">
         <v>1</v>
@@ -8308,7 +8299,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137" spans="1:17">
@@ -8337,10 +8328,10 @@
         <v>3</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K137">
-        <v>0.03703703703703703</v>
+        <v>0.04</v>
       </c>
       <c r="L137">
         <v>1</v>
@@ -8358,7 +8349,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138" spans="1:17">
@@ -8369,10 +8360,10 @@
         <v>0.25</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -8384,13 +8375,13 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="K138">
-        <v>0.03703703703703703</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="L138">
         <v>1</v>
@@ -8408,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139" spans="1:17">
@@ -8419,10 +8410,10 @@
         <v>0.25</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -8434,10 +8425,10 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>386</v>
+        <v>228</v>
       </c>
       <c r="K139">
         <v>0.03225806451612903</v>
@@ -8446,16 +8437,16 @@
         <v>1</v>
       </c>
       <c r="M139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N139">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O139">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q139">
         <v>30</v>
@@ -8487,7 +8478,7 @@
         <v>3</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="K140">
         <v>0.02777777777777778</v>
@@ -8537,7 +8528,7 @@
         <v>3</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="K141">
         <v>0.02564102564102564</v>
@@ -8569,10 +8560,10 @@
         <v>0.25</v>
       </c>
       <c r="C142">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -8584,10 +8575,10 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="K142">
         <v>0.02272727272727273</v>
@@ -8619,10 +8610,10 @@
         <v>0.25</v>
       </c>
       <c r="C143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -8634,13 +8625,13 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="K143">
-        <v>0.02222222222222222</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="L143">
         <v>1</v>
@@ -8658,7 +8649,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="144" spans="1:17">
@@ -8687,28 +8678,28 @@
         <v>3</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>239</v>
+        <v>386</v>
       </c>
       <c r="K144">
-        <v>0.01769911504424779</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="L144">
         <v>2</v>
       </c>
       <c r="M144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N144">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="O144">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="P144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q144">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="145" spans="1:17">
@@ -8716,13 +8707,13 @@
         <v>151</v>
       </c>
       <c r="B145">
-        <v>0.25</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -8734,31 +8725,31 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>391</v>
+        <v>244</v>
       </c>
       <c r="K145">
-        <v>0.006666666666666667</v>
+        <v>0.004705882352941176</v>
       </c>
       <c r="L145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N145">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="O145">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="P145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q145">
-        <v>149</v>
+        <v>423</v>
       </c>
     </row>
     <row r="146" spans="1:17">
@@ -8766,13 +8757,13 @@
         <v>152</v>
       </c>
       <c r="B146">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -8784,31 +8775,31 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>243</v>
+        <v>387</v>
       </c>
       <c r="K146">
-        <v>0.003584229390681004</v>
+        <v>0.002439024390243902</v>
       </c>
       <c r="L146">
         <v>1</v>
       </c>
       <c r="M146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N146">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O146">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q146">
-        <v>278</v>
+        <v>409</v>
       </c>
     </row>
     <row r="147" spans="1:17">
@@ -8816,13 +8807,13 @@
         <v>153</v>
       </c>
       <c r="B147">
-        <v>0.25</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -8834,31 +8825,31 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K147">
-        <v>0.0008936550491510277</v>
+        <v>0.0008944543828264759</v>
       </c>
       <c r="L147">
         <v>1</v>
       </c>
       <c r="M147">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N147">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="O147">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="P147" t="b">
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="148" spans="1:17">
@@ -8866,7 +8857,7 @@
         <v>154</v>
       </c>
       <c r="B148">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -8884,7 +8875,31 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="K148">
+        <v>0.0006261740763932373</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>1</v>
+      </c>
+      <c r="P148" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <v>1596</v>
       </c>
     </row>
     <row r="149" spans="1:17">
@@ -8892,7 +8907,7 @@
         <v>155</v>
       </c>
       <c r="B149">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -8910,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:17">
@@ -8918,13 +8933,13 @@
         <v>156</v>
       </c>
       <c r="B150">
-        <v>0.2307692307692308</v>
+        <v>0.2</v>
       </c>
       <c r="C150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -8936,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:17">
@@ -8944,25 +8959,25 @@
         <v>157</v>
       </c>
       <c r="B151">
-        <v>0.2222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151" t="b">
+        <v>0</v>
+      </c>
+      <c r="H151">
         <v>4</v>
-      </c>
-      <c r="D151">
-        <v>4</v>
-      </c>
-      <c r="E151">
-        <v>1</v>
-      </c>
-      <c r="F151">
-        <v>0</v>
-      </c>
-      <c r="G151" t="b">
-        <v>0</v>
-      </c>
-      <c r="H151">
-        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:17">
@@ -8970,13 +8985,13 @@
         <v>158</v>
       </c>
       <c r="B152">
-        <v>0.2222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -8988,7 +9003,7 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="153" spans="1:17">
@@ -8996,13 +9011,13 @@
         <v>159</v>
       </c>
       <c r="B153">
-        <v>0.2173913043478261</v>
+        <v>0.2</v>
       </c>
       <c r="C153">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -9014,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:17">
@@ -9051,10 +9066,10 @@
         <v>0.2</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -9066,7 +9081,7 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156" spans="1:17">
@@ -9129,10 +9144,10 @@
         <v>0.2</v>
       </c>
       <c r="C158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -9144,7 +9159,7 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:17">
@@ -9155,10 +9170,10 @@
         <v>0.2</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -9170,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:17">
@@ -9207,10 +9222,10 @@
         <v>0.2</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -9222,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9230,13 +9245,13 @@
         <v>168</v>
       </c>
       <c r="B162">
-        <v>0.2</v>
+        <v>0.1875</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -9248,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -9256,13 +9271,13 @@
         <v>169</v>
       </c>
       <c r="B163">
-        <v>0.2</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -9274,7 +9289,7 @@
         <v>0</v>
       </c>
       <c r="H163">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -9282,13 +9297,13 @@
         <v>170</v>
       </c>
       <c r="B164">
-        <v>0.2</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -9300,7 +9315,7 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -9308,7 +9323,7 @@
         <v>171</v>
       </c>
       <c r="B165">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -9326,7 +9341,7 @@
         <v>0</v>
       </c>
       <c r="H165">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -9334,13 +9349,13 @@
         <v>172</v>
       </c>
       <c r="B166">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -9352,7 +9367,7 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -9360,7 +9375,7 @@
         <v>173</v>
       </c>
       <c r="B167">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -9378,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -9386,13 +9401,13 @@
         <v>174</v>
       </c>
       <c r="B168">
-        <v>0.1976744186046512</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C168">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D168">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -9404,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <v>69</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -9415,10 +9430,10 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -9430,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -9441,10 +9456,10 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -9456,7 +9471,7 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -9467,10 +9482,10 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -9482,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -9490,13 +9505,13 @@
         <v>178</v>
       </c>
       <c r="B172">
-        <v>0.1666666666666667</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -9508,7 +9523,7 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -9516,7 +9531,7 @@
         <v>179</v>
       </c>
       <c r="B173">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -9534,7 +9549,7 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -9542,7 +9557,7 @@
         <v>180</v>
       </c>
       <c r="B174">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -9560,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -9568,7 +9583,7 @@
         <v>181</v>
       </c>
       <c r="B175">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -9586,7 +9601,7 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -9594,13 +9609,13 @@
         <v>182</v>
       </c>
       <c r="B176">
-        <v>0.1538461538461539</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -9612,7 +9627,7 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -9643,7 +9658,7 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="1" t="s">
-        <v>184</v>
+        <v>8</v>
       </c>
       <c r="B178">
         <v>0.1428571428571428</v>
@@ -9669,7 +9684,7 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B179">
         <v>0.1428571428571428</v>
@@ -9695,7 +9710,7 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B180">
         <v>0.1428571428571428</v>
@@ -9721,10 +9736,10 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="1" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="B181">
-        <v>0.1428571428571428</v>
+        <v>0.125</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -9742,7 +9757,7 @@
         <v>0</v>
       </c>
       <c r="H181">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -9750,7 +9765,7 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.1428571428571428</v>
+        <v>0.125</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -9768,7 +9783,7 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -9776,7 +9791,7 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.1428571428571428</v>
+        <v>0.125</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -9794,7 +9809,7 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -9802,7 +9817,7 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.1428571428571428</v>
+        <v>0.125</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -9820,7 +9835,7 @@
         <v>0</v>
       </c>
       <c r="H184">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -9828,7 +9843,7 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.1428571428571428</v>
+        <v>0.125</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -9846,7 +9861,7 @@
         <v>0</v>
       </c>
       <c r="H185">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -9854,7 +9869,7 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.1428571428571428</v>
+        <v>0.125</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -9872,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -9880,13 +9895,13 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.125</v>
+        <v>0.1125</v>
       </c>
       <c r="C187">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D187">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -9898,7 +9913,7 @@
         <v>0</v>
       </c>
       <c r="H187">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -9906,7 +9921,7 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -9924,7 +9939,7 @@
         <v>0</v>
       </c>
       <c r="H188">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -9932,13 +9947,13 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -9950,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="H189">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -9958,7 +9973,7 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -9976,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="H190">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -9984,13 +9999,13 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.1111111111111111</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -10002,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <v>8</v>
+        <v>98</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10010,13 +10025,13 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.1111111111111111</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -10028,7 +10043,7 @@
         <v>0</v>
       </c>
       <c r="H192">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10036,13 +10051,13 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.1111111111111111</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -10054,7 +10069,7 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10062,13 +10077,13 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.1090909090909091</v>
+        <v>0.1</v>
       </c>
       <c r="C194">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D194">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -10080,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="H194">
-        <v>98</v>
+        <v>36</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10088,13 +10103,13 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.1052631578947368</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -10106,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10114,13 +10129,13 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C196">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -10132,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10140,7 +10155,7 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -10158,7 +10173,7 @@
         <v>0</v>
       </c>
       <c r="H197">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10166,7 +10181,7 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -10184,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10192,7 +10207,7 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -10210,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="H199">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10270,13 +10285,13 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.09090909090909091</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -10288,7 +10303,7 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -10296,7 +10311,7 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -10314,7 +10329,7 @@
         <v>0</v>
       </c>
       <c r="H203">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -10322,7 +10337,7 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -10340,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="H204">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -10348,7 +10363,7 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -10366,7 +10381,7 @@
         <v>0</v>
       </c>
       <c r="H205">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -10374,13 +10389,13 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C206">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D206">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -10392,7 +10407,7 @@
         <v>0</v>
       </c>
       <c r="H206">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -10426,7 +10441,7 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -10444,7 +10459,7 @@
         <v>0</v>
       </c>
       <c r="H208">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -10452,7 +10467,7 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -10470,7 +10485,7 @@
         <v>0</v>
       </c>
       <c r="H209">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -10478,13 +10493,13 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E210">
         <v>1</v>
@@ -10496,7 +10511,7 @@
         <v>0</v>
       </c>
       <c r="H210">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -10507,10 +10522,10 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -10522,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="H211">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -10530,7 +10545,7 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.07142857142857142</v>
+        <v>0.0625</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -10548,7 +10563,7 @@
         <v>0</v>
       </c>
       <c r="H212">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -10556,7 +10571,7 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.06666666666666667</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -10574,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="H213">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -10582,7 +10597,7 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0625</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -10600,7 +10615,7 @@
         <v>0</v>
       </c>
       <c r="H214">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -10608,13 +10623,13 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0625</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -10626,7 +10641,7 @@
         <v>0</v>
       </c>
       <c r="H215">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -10634,7 +10649,7 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0625</v>
+        <v>0.05</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -10652,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="H216">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -10660,7 +10675,7 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.05555555555555555</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -10678,7 +10693,7 @@
         <v>0</v>
       </c>
       <c r="H217">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -10686,7 +10701,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.05263157894736842</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -10704,7 +10719,7 @@
         <v>0</v>
       </c>
       <c r="H218">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -10712,7 +10727,7 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.05263157894736842</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -10730,7 +10745,7 @@
         <v>0</v>
       </c>
       <c r="H219">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -10738,7 +10753,7 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.05</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -10756,7 +10771,7 @@
         <v>0</v>
       </c>
       <c r="H220">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -10764,7 +10779,7 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.04761904761904762</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -10782,7 +10797,7 @@
         <v>0</v>
       </c>
       <c r="H221">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -10790,7 +10805,7 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.04545454545454546</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -10808,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="H222">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -10816,25 +10831,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.04166666666666666</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H223">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -10842,7 +10857,7 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.04</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -10860,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="H224">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -10868,7 +10883,7 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.03703703703703703</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -10886,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="H225">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -10894,7 +10909,7 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.03448275862068965</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -10912,7 +10927,7 @@
         <v>0</v>
       </c>
       <c r="H226">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -10946,13 +10961,13 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.02666666666666667</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -10964,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="H228">
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -10972,7 +10987,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.02631578947368421</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -10990,7 +11005,7 @@
         <v>0</v>
       </c>
       <c r="H229">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -10998,7 +11013,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.02272727272727273</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -11016,7 +11031,7 @@
         <v>0</v>
       </c>
       <c r="H230">
-        <v>43</v>
+        <v>87</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11024,13 +11039,13 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.01438848920863309</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="C231">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D231">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -11042,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="H231">
-        <v>137</v>
+        <v>440</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11050,7 +11065,7 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.01282051282051282</v>
+        <v>0.007194244604316547</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -11068,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="H232">
-        <v>77</v>
+        <v>138</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11076,7 +11091,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.01136363636363636</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -11094,7 +11109,7 @@
         <v>0</v>
       </c>
       <c r="H233">
-        <v>87</v>
+        <v>139</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11102,25 +11117,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.008928571428571428</v>
+        <v>0.006896551724137931</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E234">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>0.6699999999999999</v>
+        <v>0</v>
       </c>
       <c r="G234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H234">
-        <v>111</v>
+        <v>144</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11128,7 +11143,7 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.007142857142857143</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -11146,7 +11161,7 @@
         <v>0</v>
       </c>
       <c r="H235">
-        <v>139</v>
+        <v>191</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11154,25 +11169,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.006896551724137931</v>
+        <v>0.004456327985739751</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="G236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H236">
-        <v>144</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11180,7 +11195,7 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.005208333333333333</v>
+        <v>0.00353356890459364</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -11198,7 +11213,7 @@
         <v>0</v>
       </c>
       <c r="H237">
-        <v>191</v>
+        <v>282</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11206,25 +11221,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.003584229390681004</v>
+        <v>0.003174603174603175</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E238">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F238">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H238">
-        <v>278</v>
+        <v>314</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11232,25 +11247,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0035650623885918</v>
+        <v>0.002358490566037736</v>
       </c>
       <c r="C239">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D239">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E239">
-        <v>0.8</v>
+        <v>0.33</v>
       </c>
       <c r="F239">
-        <v>0.2</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>1118</v>
+        <v>423</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -11258,7 +11273,7 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.00353356890459364</v>
+        <v>0.0006393861892583121</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -11276,111 +11291,7 @@
         <v>0</v>
       </c>
       <c r="H240">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
-      <c r="A241" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B241">
-        <v>0.003262642740619902</v>
-      </c>
-      <c r="C241">
-        <v>2</v>
-      </c>
-      <c r="D241">
-        <v>2</v>
-      </c>
-      <c r="E241">
-        <v>1</v>
-      </c>
-      <c r="F241">
-        <v>0</v>
-      </c>
-      <c r="G241" t="b">
-        <v>0</v>
-      </c>
-      <c r="H241">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
-      <c r="A242" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B242">
-        <v>0.002304147465437788</v>
-      </c>
-      <c r="C242">
-        <v>1</v>
-      </c>
-      <c r="D242">
-        <v>1</v>
-      </c>
-      <c r="E242">
-        <v>1</v>
-      </c>
-      <c r="F242">
-        <v>0</v>
-      </c>
-      <c r="G242" t="b">
-        <v>0</v>
-      </c>
-      <c r="H242">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
-      <c r="A243" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B243">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="C243">
-        <v>1</v>
-      </c>
-      <c r="D243">
-        <v>1</v>
-      </c>
-      <c r="E243">
-        <v>1</v>
-      </c>
-      <c r="F243">
-        <v>0</v>
-      </c>
-      <c r="G243" t="b">
-        <v>0</v>
-      </c>
-      <c r="H243">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
-      <c r="A244" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B244">
-        <v>0.001278772378516624</v>
-      </c>
-      <c r="C244">
-        <v>2</v>
-      </c>
-      <c r="D244">
-        <v>2</v>
-      </c>
-      <c r="E244">
-        <v>1</v>
-      </c>
-      <c r="F244">
-        <v>0</v>
-      </c>
-      <c r="G244" t="b">
-        <v>0</v>
-      </c>
-      <c r="H244">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
   </sheetData>
